--- a/Report/mid/03/220930_佐野_論文チェック表.xlsx
+++ b/Report/mid/03/220930_佐野_論文チェック表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE0E7E-8955-4EDE-A059-4AF184F08DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0FD69-960A-4AE9-9FB4-345F2A5EC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,6 +486,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,47 +531,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,31 +881,31 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
@@ -916,31 +916,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
@@ -948,225 +948,230 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="23" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
@@ -1179,11 +1184,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,6 +1192,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3151893-d3c0-4b9c-89a3-64979a909fcc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a7b29f89-ed28-4627-9d15-9fd767044f43" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100593035EC04C9A142BED423F8A030E59C" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2ddff9310dcafcceb25bf0dd6b25bb8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3151893-d3c0-4b9c-89a3-64979a909fcc" xmlns:ns3="a7b29f89-ed28-4627-9d15-9fd767044f43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9b67bb89c7b7ce4e4ca2d46ad936f85" ns2:_="" ns3:_="">
     <xsd:import namespace="f3151893-d3c0-4b9c-89a3-64979a909fcc"/>
@@ -1380,17 +1391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3151893-d3c0-4b9c-89a3-64979a909fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a7b29f89-ed28-4627-9d15-9fd767044f43" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1401,6 +1401,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{811D2512-7974-4480-9FCC-AA902B07F2EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3151893-d3c0-4b9c-89a3-64979a909fcc"/>
+    <ds:schemaRef ds:uri="a7b29f89-ed28-4627-9d15-9fd767044f43"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85A85422-374F-4F9E-A46F-B8659EBDF934}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1419,17 +1430,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{811D2512-7974-4480-9FCC-AA902B07F2EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f3151893-d3c0-4b9c-89a3-64979a909fcc"/>
-    <ds:schemaRef ds:uri="a7b29f89-ed28-4627-9d15-9fd767044f43"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288E3CF1-13FE-4FEE-ABB1-DBB1773D9D0C}">
   <ds:schemaRefs>

--- a/Report/mid/03/220930_佐野_論文チェック表.xlsx
+++ b/Report/mid/03/220930_佐野_論文チェック表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0FD69-960A-4AE9-9FB4-345F2A5EC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AFE4F9-6D1E-4D1F-853F-2B5A8147FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="32480" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>論文，提出物チェック表</t>
     <rPh sb="0" eb="2">
@@ -323,6 +323,13 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田上 9/30</t>
+    <rPh sb="0" eb="2">
+      <t>タガミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -472,9 +479,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +492,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -505,15 +535,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,21 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,7 +884,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -892,286 +898,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="5" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="23" x14ac:dyDescent="0.5">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
@@ -1184,6 +1211,11 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,17 +1224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3151893-d3c0-4b9c-89a3-64979a909fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a7b29f89-ed28-4627-9d15-9fd767044f43" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100593035EC04C9A142BED423F8A030E59C" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2ddff9310dcafcceb25bf0dd6b25bb8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3151893-d3c0-4b9c-89a3-64979a909fcc" xmlns:ns3="a7b29f89-ed28-4627-9d15-9fd767044f43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9b67bb89c7b7ce4e4ca2d46ad936f85" ns2:_="" ns3:_="">
     <xsd:import namespace="f3151893-d3c0-4b9c-89a3-64979a909fcc"/>
@@ -1391,6 +1412,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3151893-d3c0-4b9c-89a3-64979a909fcc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a7b29f89-ed28-4627-9d15-9fd767044f43" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1401,17 +1433,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{811D2512-7974-4480-9FCC-AA902B07F2EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f3151893-d3c0-4b9c-89a3-64979a909fcc"/>
-    <ds:schemaRef ds:uri="a7b29f89-ed28-4627-9d15-9fd767044f43"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85A85422-374F-4F9E-A46F-B8659EBDF934}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1430,6 +1451,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{811D2512-7974-4480-9FCC-AA902B07F2EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3151893-d3c0-4b9c-89a3-64979a909fcc"/>
+    <ds:schemaRef ds:uri="a7b29f89-ed28-4627-9d15-9fd767044f43"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288E3CF1-13FE-4FEE-ABB1-DBB1773D9D0C}">
   <ds:schemaRefs>
